--- a/Output/Employees.xlsx
+++ b/Output/Employees.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajame\OneDrive\Documents\UiPath\ReportAndEmployeesDetails\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656C5942-71E4-4B02-834C-18FBF2B93A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Employees" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Employees" sheetId="5" r:id="rId2"/>
+    <x:sheet name="New" sheetId="6" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <x:si>
     <x:t>full Name</x:t>
   </x:si>
@@ -50,291 +58,291 @@
     <x:t>Password</x:t>
   </x:si>
   <x:si>
+    <x:t>Atifah_khaled Rahal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00 72 188 255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AtifahSamraRahal@dayrep.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/03/1987</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female Cook</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gived1987</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fee1bei3Keo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ward_oficee Baba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+72 537 732</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WardRedaBaba@jourrapide.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/04/1984</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Technician</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Havercy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>raenoh5#xoo1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hasnah_Abdulrahman Halabi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+74 133 706</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HasnahRafahHalabi@dayrep.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/10/1985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Patient Attendant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hasnds5523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khalidah_yasser Nassar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+78 459 994</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KhalidahAmirahNassar@dayrep.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/05/2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cleaner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Skine1994</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoh5Ij9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nu'aim_Mohammed Kassab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+73 947 297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NuaimDaudKassab@rhyta.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/04/1987</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thenin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Een@8Re6ai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anbarin_Jack Asker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00 76 447 126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AnbarinLatifahAsker@armyspy.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AB-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/02/1960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male Nurse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frow1960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phegei0Oo@ma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul_Noor Abboud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+76 196 615</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul-NurMarzuqAbboud@armyspy.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AB+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/01/1998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becia1998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ieriearo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Humayrah_Mahmoud Sabbagh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00 74 962 211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HumayrahRadhwaSabbagh@armyspy.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/09/1985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beetwought</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quitu!6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abbudin_Shams Harb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00 76 528 095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbbudinHamdiHarb@armyspy.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26/12/1952</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inualst</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ohb5ish3daaa@</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nasmah_Faizah Sayegh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+74 789 920</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NasmahNuhaSayegh@rhyta.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/10/1965</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Acyll1965</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sha2aePhuJai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Leila_Khaleel Khouri</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00 72 232 109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LeilaBilqeesKhouri@jourrapide.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/12/1972</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Smuld1972</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jaPh0quoofah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manar_Yahya Haik</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0077 104 987</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ManarAishahHaik@rhyta.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/05/1979</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female Nurse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Evell1979</x:t>
+  </x:si>
+  <x:si>
+    <x:t>li4ri#2she3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wajdi_Fahad Moghadam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00 73 161 713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WajdiWaseemMoghadam@jourrapide.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/08/1996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Physiotherapist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clien1996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eiHox9iecoofai!$#</x:t>
+  </x:si>
+  <x:si>
     <x:t>Age</x:t>
   </x:si>
   <x:si>
-    <x:t>Atifah_khaled Rahal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00 72 188 255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AtifahSamraRahal@dayrep.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B+</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11/03/1987</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Female Cook</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gived1987</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fee1bei3Keo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ward_oficee Baba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+72 537 732</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WardRedaBaba@jourrapide.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12/04/1984</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Technician</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Havercy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>raenoh5#xoo1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hasnah_Abdulrahman Halabi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+74 133 706</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HasnahRafahHalabi@dayrep.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21/10/1985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Patient Attendant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hasnds5523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khalidah_yasser Nassar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+78 459 994</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KhalidahAmirahNassar@dayrep.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/05/2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cleaner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Skine1994</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoh5Ij9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nu'aim_Mohammed Kassab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+73 947 297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NuaimDaudKassab@rhyta.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A+</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/04/1987</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thenin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Een@8Re6ai</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anbarin_Jack Asker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00 76 447 126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AnbarinLatifahAsker@armyspy.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AB-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29/02/1960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male Nurse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Frow1960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>phegei0Oo@ma</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdul_Noor Abboud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+76 196 615</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdul-NurMarzuqAbboud@armyspy.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AB+</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22/01/1998</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becia1998</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ieriearo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Humayrah_Mahmoud Sabbagh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00 74 962 211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HumayrahRadhwaSabbagh@armyspy.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22/09/1985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beetwought</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quitu!6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abbudin_Shams Harb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00 76 528 095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbbudinHamdiHarb@armyspy.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26/12/1952</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inualst</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ohb5ish3daaa@</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nasmah_Faizah Sayegh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+74 789 920</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NasmahNuhaSayegh@rhyta.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17/10/1965</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Acyll1965</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sha2aePhuJai</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Leila_Khaleel Khouri</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00 72 232 109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LeilaBilqeesKhouri@jourrapide.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18/12/1972</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Smuld1972</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jaPh0quoofah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manar_Yahya Haik</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0077 104 987</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ManarAishahHaik@rhyta.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O+</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17/05/1979</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Female Nurse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Evell1979</x:t>
-  </x:si>
-  <x:si>
-    <x:t>li4ri#2she3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wajdi_Fahad Moghadam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00 73 161 713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WajdiWaseemMoghadam@jourrapide.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27/08/1996</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Physiotherapist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clien1996</x:t>
-  </x:si>
-  <x:si>
-    <x:t>eiHox9iecoofai!$#</x:t>
-  </x:si>
-  <x:si>
     <x:t>Duration time</x:t>
   </x:si>
   <x:si>
@@ -504,18 +512,32 @@
   </x:si>
   <x:si>
     <x:t>00:00:00.02978</x:t>
+  </x:si>
+  <x:si>
+    <x:t>388.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>798</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>840</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -531,38 +553,32 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -850,17 +866,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L14"/>
+  <x:dimension ref="A1:K14"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="M16" sqref="M16"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:12">
+    <x:row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -894,502 +912,460 @@
       <x:c r="K1" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:12">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>5544508863</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+    </x:row>
+    <x:row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="n">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>5346565461</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="K3" s="0" t="s">
+    </x:row>
+    <x:row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="L3" s="0" t="n">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="B4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>5390407597</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
         <x:v>654</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K4" s="0" t="n">
         <x:v>12332109876</x:v>
       </x:c>
-      <x:c r="L4" s="0" t="n">
+    </x:row>
+    <x:row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="A5" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>40</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>5536446767</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
         <x:v>462</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="K5" s="0" t="s">
+    </x:row>
+    <x:row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="L5" s="0" t="n">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="A6" s="0" t="s">
+      <x:c r="B6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>47</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>48</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>5438751998</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
         <x:v>800</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="K6" s="0" t="s">
+    </x:row>
+    <x:row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="L6" s="0" t="n">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="A7" s="0" t="s">
+      <x:c r="B7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>55</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>5490051196</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
         <x:v>950</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="K7" s="0" t="s">
+    </x:row>
+    <x:row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="L7" s="0" t="n">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:12">
-      <x:c r="A8" s="0" t="s">
+      <x:c r="B8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>5141076881</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
         <x:v>2500</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="K8" s="0" t="s">
+    </x:row>
+    <x:row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="L8" s="0" t="n">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:12">
-      <x:c r="A9" s="0" t="s">
+      <x:c r="B9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>69</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>70</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>5445634404</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
         <x:v>250</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="K9" s="0" t="s">
+    </x:row>
+    <x:row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="L9" s="0" t="n">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:12">
-      <x:c r="A10" s="0" t="s">
+      <x:c r="B10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="E10" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>76</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>5448736096</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
         <x:v>750</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="K10" s="0" t="s">
+    </x:row>
+    <x:row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="L10" s="0" t="n">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:12">
-      <x:c r="A11" s="0" t="s">
+      <x:c r="B11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
+      <x:c r="E11" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>82</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>5449931159</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I11" s="0" t="n">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="K11" s="0" t="s">
+    </x:row>
+    <x:row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="L11" s="0" t="n">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:12">
-      <x:c r="A12" s="0" t="s">
+      <x:c r="B12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="D12" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
+      <x:c r="E12" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>88</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>5351094753</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I12" s="0" t="n">
         <x:v>700</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="K12" s="0" t="s">
+    </x:row>
+    <x:row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="L12" s="0" t="n">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:12">
-      <x:c r="A13" s="0" t="s">
+      <x:c r="B13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="D13" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="s">
+      <x:c r="E13" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="E13" s="0" t="s">
+      <x:c r="F13" s="0" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>95</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>5456365959</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I13" s="0" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="K13" s="0" t="s">
+    </x:row>
+    <x:row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="L13" s="0" t="n">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:12">
-      <x:c r="A14" s="0" t="s">
+      <x:c r="B14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="D14" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
+      <x:c r="E14" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
         <x:v>101</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>102</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>5565800143</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I14" s="0" t="n">
         <x:v>799</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="K14" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="L14" s="0" t="n">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1402,17 +1378,406 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:M9"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M2"/>
+  <x:dimension ref="A1:L13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:13">
+    <x:row r="1" spans="1:12">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1447,338 +1812,501 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="L1" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:12">
+      <x:c r="A2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:13">
-      <x:c r="A2" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
       <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
       <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>110</x:v>
+      <x:c r="G2" s="0" t="n">
+        <x:v>5544508863</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="L2" s="0" t="n">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:12">
+      <x:c r="A3" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:13">
-      <x:c r="A3" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
       <x:c r="D3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>117</x:v>
+      <x:c r="G3" s="0" t="n">
+        <x:v>5346565461</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="K3" s="0" t="s">
+      <x:c r="L3" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:12">
+      <x:c r="A4" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="L3" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="M3" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:13">
-      <x:c r="A4" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>124</x:v>
+      <x:c r="G4" s="0" t="n">
+        <x:v>5390407597</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="n">
+        <x:v>12332109876</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="n">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:12">
+      <x:c r="A5" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:13">
-      <x:c r="A5" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="n">
+        <x:v>5536446767</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:12">
+      <x:c r="A6" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="n">
+        <x:v>5438751998</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="n">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:12">
+      <x:c r="A7" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="n">
+        <x:v>5490051196</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="n">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:12">
+      <x:c r="A8" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="n">
+        <x:v>5141076881</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:12">
+      <x:c r="A9" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
+      <x:c r="G9" s="0" t="n">
+        <x:v>5445634404</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="J5" s="0" t="s">
+      <x:c r="J9" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="K5" s="0" t="s">
+      <x:c r="L9" s="0" t="n">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:12">
+      <x:c r="A10" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:13">
-      <x:c r="A6" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="B10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
+      <x:c r="G10" s="0" t="n">
+        <x:v>5448736096</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="J6" s="0" t="s">
+      <x:c r="J10" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="K6" s="0" t="s">
+      <x:c r="L10" s="0" t="n">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:12">
+      <x:c r="A11" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="L6" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="M6" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:13">
-      <x:c r="A7" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="B11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="n">
+        <x:v>5449931159</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="n">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:12">
+      <x:c r="A12" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
+      <x:c r="G12" s="0" t="n">
+        <x:v>5351094753</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="J7" s="0" t="s">
+      <x:c r="J12" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="K7" s="0" t="s">
+      <x:c r="L12" s="0" t="n">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:12">
+      <x:c r="A13" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="L7" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="M7" s="0" t="s">
-        <x:v>148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:13">
-      <x:c r="A8" s="0" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="B13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="F13" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
+      <x:c r="G13" s="0" t="n">
+        <x:v>5456365959</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="J8" s="0" t="s">
+      <x:c r="K13" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="K8" s="0" t="s">
+      <x:c r="L13" s="0" t="n">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:12">
+      <x:c r="A14" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="L8" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="M8" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:13">
-      <x:c r="A9" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="B14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
+      <x:c r="G14" s="0" t="n">
+        <x:v>5565800143</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="J9" s="0" t="s">
+      <x:c r="K14" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="K9" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="L9" s="0" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="M9" s="0" t="s">
-        <x:v>162</x:v>
+      <x:c r="L14" s="0" t="n">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Output/Employees.xlsx
+++ b/Output/Employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajame\OneDrive\Documents\UiPath\ReportAndEmployeesDetails\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C85D1A-DE6E-47BC-BAD3-5CD5ED0FF95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51CD318-F26C-4462-A0BE-18A0440C6D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
